--- a/Entities/Data/Pokemon.xlsx
+++ b/Entities/Data/Pokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="12315" tabRatio="222"/>
+    <workbookView windowWidth="16200" windowHeight="11955" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Num</t>
   </si>
@@ -89,22 +89,34 @@
     <t>Prairie</t>
   </si>
   <si>
+    <t>1;2</t>
+  </si>
+  <si>
     <t>Ivysaur</t>
   </si>
   <si>
     <t>Blue</t>
   </si>
   <si>
+    <t>3;4</t>
+  </si>
+  <si>
     <t>Venusaur</t>
   </si>
   <si>
     <t>Red</t>
   </si>
   <si>
+    <t>5;6</t>
+  </si>
+  <si>
     <t>Charmander</t>
   </si>
   <si>
     <t>Fire</t>
+  </si>
+  <si>
+    <t>7;8</t>
   </si>
   <si>
     <t>Charmeleon</t>
@@ -1142,7 +1154,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1205,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1239,13 +1251,16 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1269,18 +1284,21 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1298,21 +1316,24 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1334,6 +1355,9 @@
       </c>
       <c r="K5" t="s">
         <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1341,10 +1365,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1362,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -1373,13 +1397,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1391,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1405,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1432,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1440,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1461,13 +1485,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1475,10 +1499,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1490,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1504,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1528,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1536,10 +1560,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1560,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1568,13 +1592,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1586,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1597,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1624,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1632,10 +1656,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1659,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1667,10 +1691,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1685,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1696,13 +1720,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1723,10 +1747,10 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1734,13 +1758,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1758,13 +1782,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1772,13 +1796,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1790,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Entities/Data/Pokemon.xlsx
+++ b/Entities/Data/Pokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="11955" tabRatio="222"/>
+    <workbookView windowHeight="10110" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t>Num</t>
   </si>
@@ -122,6 +122,9 @@
     <t>Charmeleon</t>
   </si>
   <si>
+    <t>9;10</t>
+  </si>
+  <si>
     <t>Charizard</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t>Fly</t>
   </si>
   <si>
+    <t>11;12</t>
+  </si>
+  <si>
     <t>Squirtle</t>
   </si>
   <si>
@@ -140,12 +146,21 @@
     <t>Surf</t>
   </si>
   <si>
+    <t>13;14</t>
+  </si>
+  <si>
     <t>Wartortle</t>
   </si>
   <si>
+    <t>15;16</t>
+  </si>
+  <si>
     <t>Blastoise</t>
   </si>
   <si>
+    <t>17;18</t>
+  </si>
+  <si>
     <t>Caterpie</t>
   </si>
   <si>
@@ -158,21 +173,33 @@
     <t>Metapod</t>
   </si>
   <si>
+    <t>2;21</t>
+  </si>
+  <si>
     <t>Butterfree</t>
   </si>
   <si>
     <t>Green</t>
   </si>
   <si>
+    <t>25;30</t>
+  </si>
+  <si>
     <t>Weedle</t>
   </si>
   <si>
     <t>Kakuna</t>
   </si>
   <si>
+    <t>21;20</t>
+  </si>
+  <si>
     <t>Beedrill</t>
   </si>
   <si>
+    <t>23;22</t>
+  </si>
+  <si>
     <t>Pidgey</t>
   </si>
   <si>
@@ -182,21 +209,85 @@
     <t>Meadow</t>
   </si>
   <si>
+    <t>24;25</t>
+  </si>
+  <si>
     <t>Pidgeotto</t>
   </si>
   <si>
+    <t>26;27</t>
+  </si>
+  <si>
     <t>Pidgeot</t>
+  </si>
+  <si>
+    <t>28;29</t>
+  </si>
+  <si>
+    <t>Rattata</t>
+  </si>
+  <si>
+    <t>13;2</t>
+  </si>
+  <si>
+    <t>Raticate</t>
+  </si>
+  <si>
+    <t>34;35</t>
+  </si>
+  <si>
+    <t>Spearow</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>38;39</t>
+  </si>
+  <si>
+    <t>Fearow</t>
+  </si>
+  <si>
+    <t>36;37</t>
+  </si>
+  <si>
+    <t>Ekans</t>
+  </si>
+  <si>
+    <t>39;42</t>
+  </si>
+  <si>
+    <t>Arbok</t>
+  </si>
+  <si>
+    <t>40;41</t>
+  </si>
+  <si>
+    <t>Pikachu</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>31;8</t>
+  </si>
+  <si>
+    <t>Raichu</t>
+  </si>
+  <si>
+    <t>32;33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -806,8 +897,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,6 +955,21 @@
     <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -870,8 +980,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O19" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O19" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O27" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O27" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Num"/>
     <tableColumn id="2" name="Name"/>
@@ -880,12 +990,12 @@
     <tableColumn id="5" name="Stage"/>
     <tableColumn id="6" name="EvoID"/>
     <tableColumn id="8" name="Lv"/>
-    <tableColumn id="9" name="EvoXP"/>
+    <tableColumn id="9" name="EvoXP" dataDxfId="0"/>
     <tableColumn id="11" name="Gen"/>
     <tableColumn id="10" name="Color"/>
     <tableColumn id="13" name="BackGround"/>
     <tableColumn id="14" name="Ability"/>
-    <tableColumn id="15" name="Moves ID"/>
+    <tableColumn id="15" name="Moves ID" dataDxfId="1"/>
     <tableColumn id="17" name="Form"/>
     <tableColumn id="7" name="Shiny"/>
   </tableColumns>
@@ -1151,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1163,11 +1273,12 @@
     <col min="2" max="2" width="11.7238095238095" customWidth="1"/>
     <col min="6" max="6" width="8.20952380952381" customWidth="1"/>
     <col min="7" max="7" width="4.92380952380952" customWidth="1"/>
-    <col min="8" max="8" width="8.14285714285714" customWidth="1"/>
+    <col min="8" max="8" width="8.14285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.56190476190476" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="13.552380952381" customWidth="1"/>
     <col min="12" max="12" width="8.62857142857143" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1192,7 +1303,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1207,7 +1318,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1239,7 +1350,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2">
@@ -1251,7 +1362,7 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1277,7 +1388,7 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3">
@@ -1289,7 +1400,7 @@
       <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1321,7 +1432,7 @@
       <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1344,7 +1455,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
       <c r="I5">
@@ -1356,11 +1467,11 @@
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1379,7 +1490,7 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
       <c r="I6">
@@ -1391,19 +1502,22 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1421,18 +1535,21 @@
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1443,7 +1560,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="I8">
@@ -1456,18 +1573,21 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1478,7 +1598,7 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>2</v>
       </c>
       <c r="I9">
@@ -1491,18 +1611,21 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1520,18 +1643,21 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1542,7 +1668,7 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11">
@@ -1552,18 +1678,21 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1574,7 +1703,7 @@
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12">
@@ -1584,21 +1713,24 @@
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1610,21 +1742,24 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1638,7 +1773,7 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14">
@@ -1648,18 +1783,21 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1673,7 +1811,7 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15">
@@ -1683,18 +1821,21 @@
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1709,24 +1850,27 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1737,7 +1881,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>2</v>
       </c>
       <c r="I17">
@@ -1747,24 +1891,27 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1775,7 +1922,7 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>2</v>
       </c>
       <c r="I18">
@@ -1785,24 +1932,27 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1817,13 +1967,290 @@
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
         <v>33</v>
       </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <tableParts count="1">

--- a/Entities/Data/Pokemon.xlsx
+++ b/Entities/Data/Pokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="10110" tabRatio="222"/>
+    <workbookView windowWidth="16935" windowHeight="11865" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
   <si>
     <t>Num</t>
   </si>
@@ -276,6 +276,87 @@
   </si>
   <si>
     <t>32;33</t>
+  </si>
+  <si>
+    <t>Sandshrew</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>24;43</t>
+  </si>
+  <si>
+    <t>Sandslash</t>
+  </si>
+  <si>
+    <t>47;48</t>
+  </si>
+  <si>
+    <t>Nidoran F</t>
+  </si>
+  <si>
+    <t>8;43</t>
+  </si>
+  <si>
+    <t>Nidorina</t>
+  </si>
+  <si>
+    <t>20;41</t>
+  </si>
+  <si>
+    <t>Nidoqueen</t>
+  </si>
+  <si>
+    <t>Nidoran M</t>
+  </si>
+  <si>
+    <t>39;2</t>
+  </si>
+  <si>
+    <t>Nidorino</t>
+  </si>
+  <si>
+    <t>20;44</t>
+  </si>
+  <si>
+    <t>Nidoking</t>
+  </si>
+  <si>
+    <t>45;46</t>
+  </si>
+  <si>
+    <t>Clefairy</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Clefable</t>
+  </si>
+  <si>
+    <t>Vulpix</t>
+  </si>
+  <si>
+    <t>Ninetales</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Jigglypuff</t>
+  </si>
+  <si>
+    <t>Wigglytuff</t>
+  </si>
+  <si>
+    <t>Zubat</t>
+  </si>
+  <si>
+    <t>Golbat</t>
   </si>
 </sst>
 </file>
@@ -980,8 +1061,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O27" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O27" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O43" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O43" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Num"/>
     <tableColumn id="2" name="Name"/>
@@ -1261,10 +1342,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1681,7 +1762,7 @@
         <v>46</v>
       </c>
       <c r="M11" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2242,6 +2323,522 @@
       </c>
       <c r="M27" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Entities/Data/Pokemon.xlsx
+++ b/Entities/Data/Pokemon.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16935" windowHeight="11865" tabRatio="222"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="14010" tabRatio="222"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gen1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="133">
   <si>
     <t>Num</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>StabType</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
     <t>Nidoqueen</t>
   </si>
   <si>
+    <t>49;50</t>
+  </si>
+  <si>
     <t>Nidoran M</t>
   </si>
   <si>
@@ -335,42 +335,107 @@
     <t>Cave</t>
   </si>
   <si>
+    <t>51;52</t>
+  </si>
+  <si>
     <t>Clefable</t>
   </si>
   <si>
+    <t>53;54</t>
+  </si>
+  <si>
     <t>Vulpix</t>
   </si>
   <si>
+    <t>26;7</t>
+  </si>
+  <si>
     <t>Ninetales</t>
   </si>
   <si>
     <t>Yellow</t>
   </si>
   <si>
+    <t>9;55</t>
+  </si>
+  <si>
     <t>Jigglypuff</t>
   </si>
   <si>
+    <t>51;56</t>
+  </si>
+  <si>
     <t>Wigglytuff</t>
   </si>
   <si>
+    <t>50;57</t>
+  </si>
+  <si>
     <t>Zubat</t>
   </si>
   <si>
+    <t>58;59</t>
+  </si>
+  <si>
     <t>Golbat</t>
+  </si>
+  <si>
+    <t>60;61</t>
+  </si>
+  <si>
+    <t>Oddish</t>
+  </si>
+  <si>
+    <t>3;62</t>
+  </si>
+  <si>
+    <t>Gloom</t>
+  </si>
+  <si>
+    <t>63;40</t>
+  </si>
+  <si>
+    <t>Vileplume</t>
+  </si>
+  <si>
+    <t>65;64</t>
+  </si>
+  <si>
+    <t>Paras</t>
+  </si>
+  <si>
+    <t>63;43</t>
+  </si>
+  <si>
+    <t>Parasect</t>
+  </si>
+  <si>
+    <t>66;10</t>
+  </si>
+  <si>
+    <t>Venonat</t>
+  </si>
+  <si>
+    <t>63;67</t>
+  </si>
+  <si>
+    <t>Venomoth</t>
+  </si>
+  <si>
+    <t>69;68</t>
+  </si>
+  <si>
+    <t>Stab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,353 +443,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -732,316 +460,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left"/>
+      <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1061,22 +506,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O43" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O43" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O64" totalsRowShown="0">
+  <autoFilter ref="A1:O64"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Num"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="StabType"/>
+    <tableColumn id="4" name="Stab"/>
     <tableColumn id="5" name="Stage"/>
     <tableColumn id="6" name="EvoID"/>
     <tableColumn id="8" name="Lv"/>
-    <tableColumn id="9" name="EvoXP" dataDxfId="0"/>
+    <tableColumn id="9" name="EvoXP" dataDxfId="1"/>
     <tableColumn id="11" name="Gen"/>
     <tableColumn id="10" name="Color"/>
     <tableColumn id="13" name="BackGround"/>
     <tableColumn id="14" name="Ability"/>
-    <tableColumn id="15" name="Moves ID" dataDxfId="1"/>
+    <tableColumn id="15" name="Moves ID" dataDxfId="0"/>
     <tableColumn id="17" name="Form"/>
     <tableColumn id="7" name="Shiny"/>
   </tableColumns>
@@ -1336,29 +781,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.74285714285714" customWidth="1"/>
-    <col min="2" max="2" width="11.7238095238095" customWidth="1"/>
-    <col min="6" max="6" width="8.20952380952381" customWidth="1"/>
-    <col min="7" max="7" width="4.92380952380952" customWidth="1"/>
-    <col min="8" max="8" width="8.14285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.56190476190476" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="13.552380952381" customWidth="1"/>
-    <col min="12" max="12" width="8.62857142857143" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1373,54 +821,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1438,27 +886,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1476,27 +924,27 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1508,24 +956,24 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1543,24 +991,24 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1578,27 +1026,27 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1610,27 +1058,27 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1648,27 +1096,27 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1686,27 +1134,27 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1718,27 +1166,27 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1756,24 +1204,24 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1791,27 +1239,27 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1823,27 +1271,27 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1861,27 +1309,27 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1899,27 +1347,27 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1931,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1945,13 +1393,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1969,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="L17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1986,13 +1434,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2010,16 +1458,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2027,13 +1475,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -2045,16 +1493,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2062,10 +1510,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2083,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2097,10 +1545,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2112,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2126,13 +1574,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2150,16 +1598,16 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="L22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2167,13 +1615,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2185,16 +1633,16 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2202,10 +1650,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2223,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2237,10 +1685,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2252,13 +1700,13 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2266,10 +1714,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2287,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2301,10 +1749,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2316,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2330,10 +1778,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2351,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2365,10 +1813,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2380,13 +1828,13 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2394,10 +1842,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2415,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2429,10 +1877,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2450,27 +1898,27 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2482,10 +1930,13 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2496,7 +1947,7 @@
         <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2514,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>94</v>
@@ -2531,7 +1982,7 @@
         <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2549,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>96</v>
@@ -2566,10 +2017,10 @@
         <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2581,16 +2032,16 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2616,18 +2067,21 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
         <v>100</v>
@@ -2642,21 +2096,24 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2674,21 +2131,24 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2700,24 +2160,27 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2735,24 +2198,27 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2760,29 +2226,31 @@
       <c r="G41">
         <v>4</v>
       </c>
-      <c r="H41" s="1"/>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2800,27 +2268,30 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
         <v>101</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>33</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2832,24 +2303,274 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
         <v>101</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>47</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>101</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>49</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Entities/Data/Pokemon.xlsx
+++ b/Entities/Data/Pokemon.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="14010" tabRatio="222"/>
+    <workbookView windowWidth="16125" windowHeight="10530" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="Gen1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="350">
   <si>
     <t>Num</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Stab</t>
+  </si>
+  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -281,13 +284,13 @@
     <t>Ground</t>
   </si>
   <si>
-    <t>24;43</t>
+    <t>24;72</t>
   </si>
   <si>
     <t>Sandslash</t>
   </si>
   <si>
-    <t>47;48</t>
+    <t>47;70</t>
   </si>
   <si>
     <t>Nidoran F</t>
@@ -425,17 +428,669 @@
     <t>69;68</t>
   </si>
   <si>
-    <t>Stab</t>
+    <t>Diglett</t>
+  </si>
+  <si>
+    <t>48;43</t>
+  </si>
+  <si>
+    <t>Dugtrio</t>
+  </si>
+  <si>
+    <t>70;10</t>
+  </si>
+  <si>
+    <t>Meowth</t>
+  </si>
+  <si>
+    <t>41;71</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>72;10</t>
+  </si>
+  <si>
+    <t>Psyduck</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>74;73</t>
+  </si>
+  <si>
+    <t>Golduck</t>
+  </si>
+  <si>
+    <t>67;18</t>
+  </si>
+  <si>
+    <t>Mankey</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>76;43</t>
+  </si>
+  <si>
+    <t>Primeape</t>
+  </si>
+  <si>
+    <t>46;77</t>
+  </si>
+  <si>
+    <t>Growlithe</t>
+  </si>
+  <si>
+    <t>7;78</t>
+  </si>
+  <si>
+    <t>Arcanine</t>
+  </si>
+  <si>
+    <t>9;41</t>
+  </si>
+  <si>
+    <t>Poliwag</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>14;79</t>
+  </si>
+  <si>
+    <t>Poliwhirl</t>
+  </si>
+  <si>
+    <t>80;74</t>
+  </si>
+  <si>
+    <t>Poliwrath</t>
+  </si>
+  <si>
+    <t>18;50</t>
+  </si>
+  <si>
+    <t>Abra</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Kadabra</t>
+  </si>
+  <si>
+    <t>82;67</t>
+  </si>
+  <si>
+    <t>Alakazam</t>
+  </si>
+  <si>
+    <t>93;94</t>
+  </si>
+  <si>
+    <t>Machop</t>
+  </si>
+  <si>
+    <t>76;39</t>
+  </si>
+  <si>
+    <t>Machoke</t>
+  </si>
+  <si>
+    <t>83;84</t>
+  </si>
+  <si>
+    <t>Machamp</t>
+  </si>
+  <si>
+    <t>85;77</t>
+  </si>
+  <si>
+    <t>Bellsprout</t>
+  </si>
+  <si>
+    <t>1;42</t>
+  </si>
+  <si>
+    <t>Weepinbell</t>
+  </si>
+  <si>
+    <t>68;40</t>
+  </si>
+  <si>
+    <t>Victreebel</t>
+  </si>
+  <si>
+    <t>4;86</t>
+  </si>
+  <si>
+    <t>Tentacool</t>
+  </si>
+  <si>
+    <t>20;74</t>
+  </si>
+  <si>
+    <t>Tentacruel</t>
+  </si>
+  <si>
+    <t>16;65</t>
+  </si>
+  <si>
+    <t>Geodude</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>87;88</t>
+  </si>
+  <si>
+    <t>Graveler</t>
+  </si>
+  <si>
+    <t>90;89</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>70;91</t>
+  </si>
+  <si>
+    <t>Ponyta</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>7;92</t>
+  </si>
+  <si>
+    <t>Rapidash</t>
+  </si>
+  <si>
+    <t>95;55</t>
+  </si>
+  <si>
+    <t>Slowpoke</t>
+  </si>
+  <si>
+    <t>74;8</t>
+  </si>
+  <si>
+    <t>Slowbro</t>
+  </si>
+  <si>
+    <t>16;73</t>
+  </si>
+  <si>
+    <t>Magnemite</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Ruins</t>
+  </si>
+  <si>
+    <t>31;58</t>
+  </si>
+  <si>
+    <t>Magneton</t>
+  </si>
+  <si>
+    <t>96;47</t>
+  </si>
+  <si>
+    <t>Farfetch'd</t>
+  </si>
+  <si>
+    <t>97;38</t>
+  </si>
+  <si>
+    <t>Doduo</t>
+  </si>
+  <si>
+    <t>38;72</t>
+  </si>
+  <si>
+    <t>Dodrio</t>
+  </si>
+  <si>
+    <t>98;37</t>
+  </si>
+  <si>
+    <t>Seel</t>
+  </si>
+  <si>
+    <t>99;92</t>
+  </si>
+  <si>
+    <t>Dewgong</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>100;101</t>
+  </si>
+  <si>
+    <t>Grimer</t>
+  </si>
+  <si>
+    <t>65;102</t>
+  </si>
+  <si>
+    <t>Muk</t>
+  </si>
+  <si>
+    <t>104;103</t>
+  </si>
+  <si>
+    <t>Shellder</t>
+  </si>
+  <si>
+    <t>105;2</t>
+  </si>
+  <si>
+    <t>Cloyster</t>
+  </si>
+  <si>
+    <t>99;100</t>
+  </si>
+  <si>
+    <t>Gastly</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Haunter</t>
+  </si>
+  <si>
+    <t>107;79</t>
+  </si>
+  <si>
+    <t>Gengar</t>
+  </si>
+  <si>
+    <t>108;109</t>
+  </si>
+  <si>
+    <t>Onix</t>
+  </si>
+  <si>
+    <t>111;110</t>
+  </si>
+  <si>
+    <t>Drowzee</t>
+  </si>
+  <si>
+    <t>67;73</t>
+  </si>
+  <si>
+    <t>Hypno</t>
+  </si>
+  <si>
+    <t>101;112</t>
+  </si>
+  <si>
+    <t>Krabby</t>
+  </si>
+  <si>
+    <t>113;14</t>
+  </si>
+  <si>
+    <t>Kingler</t>
+  </si>
+  <si>
+    <t>114;115</t>
+  </si>
+  <si>
+    <t>Voltorb</t>
+  </si>
+  <si>
+    <t>31;89</t>
+  </si>
+  <si>
+    <t>Electrode</t>
+  </si>
+  <si>
+    <t>117;116</t>
+  </si>
+  <si>
+    <t>Exeggcute</t>
+  </si>
+  <si>
+    <t>79;118</t>
+  </si>
+  <si>
+    <t>Exeggutor</t>
+  </si>
+  <si>
+    <t>63;95</t>
+  </si>
+  <si>
+    <t>Cubone</t>
+  </si>
+  <si>
+    <t>119;121</t>
+  </si>
+  <si>
+    <t>Marowak</t>
+  </si>
+  <si>
+    <t>120;46</t>
+  </si>
+  <si>
+    <t>Hitmonlee</t>
+  </si>
+  <si>
+    <t>49;123</t>
+  </si>
+  <si>
+    <t>Hitmonchan</t>
+  </si>
+  <si>
+    <t>122;124</t>
+  </si>
+  <si>
+    <t>Lickitung</t>
+  </si>
+  <si>
+    <t>86;106</t>
+  </si>
+  <si>
+    <t>Koffing</t>
+  </si>
+  <si>
+    <t>126;125</t>
+  </si>
+  <si>
+    <t>Weezing</t>
+  </si>
+  <si>
+    <t>127;116</t>
+  </si>
+  <si>
+    <t>Rhyhorn</t>
+  </si>
+  <si>
+    <t>44;128</t>
+  </si>
+  <si>
+    <t>Rhydon</t>
+  </si>
+  <si>
+    <t>129;70</t>
+  </si>
+  <si>
+    <t>Chansey</t>
+  </si>
+  <si>
+    <t>53;51</t>
+  </si>
+  <si>
+    <t>Tangela</t>
+  </si>
+  <si>
+    <t>1;68</t>
+  </si>
+  <si>
+    <t>Kangaskhan</t>
+  </si>
+  <si>
+    <t>130;50</t>
+  </si>
+  <si>
+    <t>Horsea</t>
+  </si>
+  <si>
+    <t>131;14</t>
+  </si>
+  <si>
+    <t>Seadra</t>
+  </si>
+  <si>
+    <t>132;133</t>
+  </si>
+  <si>
+    <t>Goldeen</t>
+  </si>
+  <si>
+    <t>44;38</t>
+  </si>
+  <si>
+    <t>Seaking</t>
+  </si>
+  <si>
+    <t>135;134</t>
+  </si>
+  <si>
+    <t>Staryu</t>
+  </si>
+  <si>
+    <t>47;74</t>
+  </si>
+  <si>
+    <t>Starmie</t>
+  </si>
+  <si>
+    <t>18;112</t>
+  </si>
+  <si>
+    <t>Mr. Mime</t>
+  </si>
+  <si>
+    <t>67;136</t>
+  </si>
+  <si>
+    <t>Scyther</t>
+  </si>
+  <si>
+    <t>137;10</t>
+  </si>
+  <si>
+    <t>Jynx</t>
+  </si>
+  <si>
+    <t>142;138</t>
+  </si>
+  <si>
+    <t>Electabuzz</t>
+  </si>
+  <si>
+    <t>32;141</t>
+  </si>
+  <si>
+    <t>Magmar</t>
+  </si>
+  <si>
+    <t>Volcano</t>
+  </si>
+  <si>
+    <t>140;125</t>
+  </si>
+  <si>
+    <t>Pinsir</t>
+  </si>
+  <si>
+    <t>115;139</t>
+  </si>
+  <si>
+    <t>Tauros</t>
+  </si>
+  <si>
+    <t>92;121</t>
+  </si>
+  <si>
+    <t>Magikarp</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
+  </si>
+  <si>
+    <t>135;144</t>
+  </si>
+  <si>
+    <t>Lapras</t>
+  </si>
+  <si>
+    <t>50;100</t>
+  </si>
+  <si>
+    <t>Ditto</t>
+  </si>
+  <si>
+    <t>Eevee</t>
+  </si>
+  <si>
+    <t>134;135;136</t>
+  </si>
+  <si>
+    <t>26;41</t>
+  </si>
+  <si>
+    <t>Vaporeon</t>
+  </si>
+  <si>
+    <t>99;18</t>
+  </si>
+  <si>
+    <t>Jolteon</t>
+  </si>
+  <si>
+    <t>96;146</t>
+  </si>
+  <si>
+    <t>Flareon</t>
+  </si>
+  <si>
+    <t>Porygon</t>
+  </si>
+  <si>
+    <t>147;31</t>
+  </si>
+  <si>
+    <t>Omanyte</t>
+  </si>
+  <si>
+    <t>74;149</t>
+  </si>
+  <si>
+    <t>Omastar</t>
+  </si>
+  <si>
+    <t>150;18</t>
+  </si>
+  <si>
+    <t>Kabuto</t>
+  </si>
+  <si>
+    <t>151;62</t>
+  </si>
+  <si>
+    <t>Kabutops</t>
+  </si>
+  <si>
+    <t>152;10</t>
+  </si>
+  <si>
+    <t>Aerodactyl</t>
+  </si>
+  <si>
+    <t>152;12</t>
+  </si>
+  <si>
+    <t>Snorlax</t>
+  </si>
+  <si>
+    <t>5;50</t>
+  </si>
+  <si>
+    <t>Articuno</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>154;38</t>
+  </si>
+  <si>
+    <t>Zapdos</t>
+  </si>
+  <si>
+    <t>96;37</t>
+  </si>
+  <si>
+    <t>Moltres</t>
+  </si>
+  <si>
+    <t>155;55</t>
+  </si>
+  <si>
+    <t>Dratini</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>131;39</t>
+  </si>
+  <si>
+    <t>Dragonair</t>
+  </si>
+  <si>
+    <t>132;86</t>
+  </si>
+  <si>
+    <t>Dragonite</t>
+  </si>
+  <si>
+    <t>Surf;Fly</t>
+  </si>
+  <si>
+    <t>156;94</t>
+  </si>
+  <si>
+    <t>Mewtwo</t>
+  </si>
+  <si>
+    <t>112;47</t>
+  </si>
+  <si>
+    <t>Mew</t>
+  </si>
+  <si>
+    <t>47;153</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,16 +1098,353 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -460,33 +1452,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -506,8 +1782,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O64" totalsRowShown="0">
-  <autoFilter ref="A1:O64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:O152" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O152" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:O152">
+    <sortCondition ref="A1:A88"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Num"/>
     <tableColumn id="2" name="Name"/>
@@ -516,12 +1795,12 @@
     <tableColumn id="5" name="Stage"/>
     <tableColumn id="6" name="EvoID"/>
     <tableColumn id="8" name="Lv"/>
-    <tableColumn id="9" name="EvoXP" dataDxfId="1"/>
+    <tableColumn id="9" name="EvoXP" dataDxfId="0"/>
     <tableColumn id="11" name="Gen"/>
     <tableColumn id="10" name="Color"/>
     <tableColumn id="13" name="BackGround"/>
     <tableColumn id="14" name="Ability"/>
-    <tableColumn id="15" name="Moves ID" dataDxfId="0"/>
+    <tableColumn id="15" name="Moves ID" dataDxfId="1"/>
     <tableColumn id="17" name="Form"/>
     <tableColumn id="7" name="Shiny"/>
   </tableColumns>
@@ -781,33 +2060,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
+    <col min="3" max="4" width="7.57142857142857" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
+    <col min="6" max="6" width="11.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="4.85714285714286" customWidth="1"/>
+    <col min="8" max="8" width="8.14285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.57142857142857" customWidth="1"/>
+    <col min="10" max="10" width="10.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="8.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="8.57142857142857" customWidth="1"/>
+    <col min="13" max="13" width="15.7142857142857" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -821,54 +2101,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -886,27 +2166,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -924,27 +2204,27 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -956,24 +2236,24 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -991,24 +2271,24 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1026,27 +2306,27 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1058,27 +2338,27 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1096,27 +2376,27 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1134,27 +2414,27 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1166,27 +2446,27 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1204,24 +2484,24 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1239,27 +2519,27 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1271,27 +2551,27 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1309,27 +2589,27 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1347,27 +2627,27 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1379,13 +2659,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1393,13 +2673,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1417,16 +2697,16 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1434,13 +2714,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1458,16 +2738,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1475,13 +2755,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1493,16 +2773,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1510,10 +2790,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1531,13 +2811,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1545,10 +2825,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1560,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1574,13 +2854,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1598,16 +2878,16 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1615,13 +2895,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1633,16 +2913,16 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1650,10 +2930,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1671,13 +2951,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1685,10 +2965,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1700,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1714,10 +2994,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1735,13 +3015,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1749,10 +3029,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1764,13 +3044,13 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1778,10 +3058,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1799,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1813,10 +3093,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1828,13 +3108,13 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1842,10 +3122,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1863,13 +3143,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1877,10 +3157,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1898,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1912,13 +3192,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1930,13 +3210,13 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1944,10 +3224,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1965,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1979,10 +3259,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2000,13 +3280,13 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2014,13 +3294,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2032,13 +3312,13 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2046,10 +3326,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2067,13 +3347,13 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2081,10 +3361,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2096,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2110,10 +3390,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2131,13 +3411,13 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2145,10 +3425,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2160,13 +3440,13 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2174,13 +3454,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2198,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2212,13 +3492,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2230,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2244,13 +3524,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2268,16 +3548,16 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2285,13 +3565,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2303,16 +3583,16 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2320,13 +3600,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2344,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2358,13 +3638,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2382,13 +3662,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2396,13 +3676,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2414,13 +3694,13 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2428,13 +3708,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2452,13 +3732,13 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2466,13 +3746,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2484,13 +3764,13 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2498,13 +3778,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2522,13 +3802,13 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2536,13 +3816,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2554,23 +3834,3532 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>51</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>53</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>55</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>57</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" t="s">
+        <v>59</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>109</v>
+      </c>
+      <c r="K58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>59</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" t="s">
+        <v>59</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>109</v>
+      </c>
+      <c r="K60" t="s">
+        <v>59</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>61</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>156</v>
+      </c>
+      <c r="L61" t="s">
+        <v>38</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>62</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>142</v>
+      </c>
+      <c r="L62" t="s">
+        <v>38</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" t="s">
+        <v>142</v>
+      </c>
+      <c r="L63" t="s">
+        <v>38</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>64</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>50</v>
+      </c>
+      <c r="K64" t="s">
+        <v>59</v>
+      </c>
+      <c r="L64" t="s">
+        <v>164</v>
+      </c>
+      <c r="M64" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>65</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" t="s">
+        <v>59</v>
+      </c>
+      <c r="L65" t="s">
+        <v>164</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L66" t="s">
+        <v>164</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>67</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67" t="s">
+        <v>59</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>68</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" t="s">
+        <v>59</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>70</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>71</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+      <c r="K72" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>73</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>156</v>
+      </c>
+      <c r="L73" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>156</v>
+      </c>
+      <c r="L74" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>75</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>102</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>76</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" t="s">
+        <v>102</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" t="s">
+        <v>102</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>78</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+      <c r="K78" t="s">
+        <v>193</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>193</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>80</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>50</v>
+      </c>
+      <c r="K80" t="s">
+        <v>142</v>
+      </c>
+      <c r="L80" t="s">
+        <v>38</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" t="s">
+        <v>142</v>
+      </c>
+      <c r="L81" t="s">
+        <v>38</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>50</v>
+      </c>
+      <c r="K82" t="s">
+        <v>203</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" t="s">
+        <v>203</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>50</v>
+      </c>
+      <c r="K84" t="s">
+        <v>59</v>
+      </c>
+      <c r="L84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" t="s">
+        <v>193</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>109</v>
+      </c>
+      <c r="K86" t="s">
+        <v>193</v>
+      </c>
+      <c r="L86" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>213</v>
+      </c>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>87</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>109</v>
+      </c>
+      <c r="K87" t="s">
+        <v>142</v>
+      </c>
+      <c r="L87" t="s">
+        <v>38</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" t="s">
+        <v>156</v>
+      </c>
+      <c r="L88" t="s">
+        <v>38</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>89</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" t="s">
+        <v>102</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" t="s">
+        <v>102</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>91</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" t="s">
+        <v>156</v>
+      </c>
+      <c r="L91" t="s">
+        <v>38</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" t="s">
+        <v>156</v>
+      </c>
+      <c r="L92" t="s">
+        <v>38</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>93</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>50</v>
+      </c>
+      <c r="K93" t="s">
+        <v>228</v>
+      </c>
+      <c r="M93" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>229</v>
+      </c>
+      <c r="C94" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>94</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" t="s">
+        <v>228</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" t="s">
+        <v>228</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s">
+        <v>102</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>97</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>50</v>
+      </c>
+      <c r="K97" t="s">
+        <v>59</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" t="s">
+        <v>59</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>99</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>50</v>
+      </c>
+      <c r="K99" t="s">
+        <v>142</v>
+      </c>
+      <c r="L99" t="s">
+        <v>38</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>109</v>
+      </c>
+      <c r="K100" t="s">
+        <v>142</v>
+      </c>
+      <c r="L100" t="s">
+        <v>38</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" t="s">
+        <v>79</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>101</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>50</v>
+      </c>
+      <c r="K101" t="s">
+        <v>203</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" t="s">
+        <v>203</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>103</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" t="s">
+        <v>59</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" t="s">
+        <v>59</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>105</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" t="s">
+        <v>193</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>109</v>
+      </c>
+      <c r="K106" t="s">
+        <v>193</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" t="s">
+        <v>147</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" t="s">
+        <v>203</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108" t="s">
+        <v>203</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="K50" t="s">
+      <c r="B109" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>109</v>
+      </c>
+      <c r="K109" t="s">
+        <v>193</v>
+      </c>
+      <c r="L109" t="s">
+        <v>38</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>110</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" t="s">
+        <v>203</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" t="s">
+        <v>203</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>265</v>
+      </c>
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>112</v>
+      </c>
+      <c r="G112">
+        <v>4</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>109</v>
+      </c>
+      <c r="K112" t="s">
+        <v>193</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" t="s">
+        <v>186</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" t="s">
+        <v>193</v>
+      </c>
+      <c r="L113" t="s">
+        <v>38</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>269</v>
+      </c>
+      <c r="C114" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>4</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>109</v>
+      </c>
+      <c r="K114" t="s">
+        <v>193</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" t="s">
+        <v>59</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>109</v>
+      </c>
+      <c r="K116" t="s">
+        <v>193</v>
+      </c>
+      <c r="L116" t="s">
+        <v>38</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>117</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117" s="1">
+        <v>3</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="K117" t="s">
+        <v>156</v>
+      </c>
+      <c r="L117" t="s">
+        <v>38</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>25</v>
+      </c>
+      <c r="K118" t="s">
+        <v>156</v>
+      </c>
+      <c r="L118" t="s">
+        <v>38</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>119</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119" s="1">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" t="s">
+        <v>156</v>
+      </c>
+      <c r="L119" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>281</v>
+      </c>
+      <c r="C120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>109</v>
+      </c>
+      <c r="K120" t="s">
+        <v>156</v>
+      </c>
+      <c r="L120" t="s">
+        <v>38</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>121</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>50</v>
+      </c>
+      <c r="K121" t="s">
+        <v>156</v>
+      </c>
+      <c r="L121" t="s">
+        <v>38</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>109</v>
+      </c>
+      <c r="K122" t="s">
+        <v>156</v>
+      </c>
+      <c r="L122" t="s">
+        <v>38</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" t="s">
+        <v>163</v>
+      </c>
+      <c r="D123" t="s">
+        <v>101</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>50</v>
+      </c>
+      <c r="K123" t="s">
+        <v>59</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>109</v>
+      </c>
+      <c r="K124" t="s">
+        <v>193</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>109</v>
+      </c>
+      <c r="K125" t="s">
+        <v>142</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>293</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+      <c r="H126" s="1">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>109</v>
+      </c>
+      <c r="K126" t="s">
+        <v>203</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>295</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>4</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>109</v>
+      </c>
+      <c r="K127" t="s">
+        <v>296</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>109</v>
+      </c>
+      <c r="K128" t="s">
+        <v>193</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>109</v>
+      </c>
+      <c r="K129" t="s">
+        <v>193</v>
+      </c>
+      <c r="L129" t="s">
+        <v>38</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>302</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>130</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130" s="1">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" t="s">
+        <v>156</v>
+      </c>
+      <c r="L130" t="s">
+        <v>38</v>
+      </c>
+      <c r="M130" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>303</v>
+      </c>
+      <c r="C131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131" t="s">
+        <v>156</v>
+      </c>
+      <c r="L131" t="s">
+        <v>38</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
         <v>131</v>
       </c>
+      <c r="B132" t="s">
+        <v>305</v>
+      </c>
+      <c r="C132" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" t="s">
+        <v>216</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>22</v>
+      </c>
+      <c r="K132" t="s">
+        <v>156</v>
+      </c>
+      <c r="L132" t="s">
+        <v>38</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>307</v>
+      </c>
+      <c r="C133" t="s">
+        <v>58</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>109</v>
+      </c>
+      <c r="K133" t="s">
+        <v>59</v>
+      </c>
+      <c r="M133" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>308</v>
+      </c>
+      <c r="C134" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>309</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134" s="1">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K134" t="s">
+        <v>59</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>311</v>
+      </c>
+      <c r="C135" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>109</v>
+      </c>
+      <c r="K135" t="s">
+        <v>142</v>
+      </c>
+      <c r="L135" t="s">
+        <v>38</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136" t="s">
+        <v>79</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>109</v>
+      </c>
+      <c r="K136" t="s">
+        <v>203</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>109</v>
+      </c>
+      <c r="K137" t="s">
+        <v>59</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>316</v>
+      </c>
+      <c r="C138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138" s="1">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>50</v>
+      </c>
+      <c r="K138" t="s">
+        <v>59</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>318</v>
+      </c>
+      <c r="C139" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>139</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+      <c r="H139" s="1">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" t="s">
+        <v>142</v>
+      </c>
+      <c r="L139" t="s">
+        <v>38</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>6</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>25</v>
+      </c>
+      <c r="K140" t="s">
+        <v>156</v>
+      </c>
+      <c r="L140" t="s">
+        <v>38</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>322</v>
+      </c>
+      <c r="C141" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>141</v>
+      </c>
+      <c r="G141">
+        <v>4</v>
+      </c>
+      <c r="H141" s="1">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141" t="s">
+        <v>102</v>
+      </c>
+      <c r="L141" t="s">
+        <v>38</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>6</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>25</v>
+      </c>
+      <c r="K142" t="s">
+        <v>102</v>
+      </c>
+      <c r="L142" t="s">
+        <v>38</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>326</v>
+      </c>
+      <c r="C143" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>4</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>109</v>
+      </c>
+      <c r="K143" t="s">
+        <v>102</v>
+      </c>
+      <c r="L143" t="s">
+        <v>34</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" t="s">
+        <v>59</v>
+      </c>
+      <c r="L144" t="s">
+        <v>38</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" t="s">
+        <v>216</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>7</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>331</v>
+      </c>
+      <c r="K145" t="s">
+        <v>332</v>
+      </c>
+      <c r="L145" t="s">
+        <v>34</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>334</v>
+      </c>
+      <c r="C146" t="s">
+        <v>79</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>7</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>331</v>
+      </c>
+      <c r="K146" t="s">
+        <v>296</v>
+      </c>
+      <c r="L146" t="s">
+        <v>34</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>336</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>7</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>331</v>
+      </c>
+      <c r="K147" t="s">
+        <v>203</v>
+      </c>
+      <c r="L147" t="s">
+        <v>34</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>338</v>
+      </c>
+      <c r="C148" t="s">
+        <v>339</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>148</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148" s="1">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>50</v>
+      </c>
+      <c r="K148" t="s">
+        <v>142</v>
+      </c>
+      <c r="L148" t="s">
+        <v>38</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>341</v>
+      </c>
+      <c r="C149" t="s">
+        <v>339</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>149</v>
+      </c>
+      <c r="G149">
+        <v>4</v>
+      </c>
+      <c r="H149" s="1">
+        <v>3</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>109</v>
+      </c>
+      <c r="K149" t="s">
+        <v>142</v>
+      </c>
+      <c r="L149" t="s">
+        <v>38</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" t="s">
+        <v>339</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>7</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>25</v>
+      </c>
+      <c r="K150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L150" t="s">
+        <v>344</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>331</v>
+      </c>
+      <c r="K151" t="s">
+        <v>102</v>
+      </c>
+      <c r="L151" t="s">
+        <v>164</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>7</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>331</v>
+      </c>
+      <c r="K152" t="s">
+        <v>46</v>
+      </c>
+      <c r="L152" t="s">
+        <v>344</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Entities/Data/Pokemon.xlsx
+++ b/Entities/Data/Pokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10530" tabRatio="222"/>
+    <workbookView windowWidth="21195" windowHeight="11115" tabRatio="222"/>
   </bookViews>
   <sheets>
     <sheet name="Gen1" sheetId="1" r:id="rId1"/>
@@ -2069,9 +2069,9 @@
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
